--- a/vectortool_customers/customers_vectortool.xlsx
+++ b/vectortool_customers/customers_vectortool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\vectortool_customers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D6F874-77F7-47C7-938F-000AC5D4A433}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668678C1-E673-4DD1-B1D0-71A5B45FB1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
   <si>
     <t>ТОВ "АЛЬЯНС СТАЛЬ"</t>
   </si>
@@ -39,9 +39,6 @@
     <t>АВК</t>
   </si>
   <si>
-    <t>АЛЬЯНС СТАЛЬ</t>
-  </si>
-  <si>
     <t>ТОВ "АВК"</t>
   </si>
   <si>
@@ -55,6 +52,231 @@
   </si>
   <si>
     <t>ТОВ "Автодеталі"</t>
+  </si>
+  <si>
+    <t>Абвер</t>
+  </si>
+  <si>
+    <t>ABWEHR</t>
+  </si>
+  <si>
+    <t>Авангард</t>
+  </si>
+  <si>
+    <t>ТОВ "АВАНГАРД"</t>
+  </si>
+  <si>
+    <t>Акваспіріт</t>
+  </si>
+  <si>
+    <t>AquaSpirit</t>
+  </si>
+  <si>
+    <t>Араміс</t>
+  </si>
+  <si>
+    <t>ТОВ "Араміс"</t>
+  </si>
+  <si>
+    <t>Бронто</t>
+  </si>
+  <si>
+    <t>BRONTO</t>
+  </si>
+  <si>
+    <t>АгрегатАгро</t>
+  </si>
+  <si>
+    <t>ТОВ «АГРЕГАТ АГРО»</t>
+  </si>
+  <si>
+    <t>Агроресурс</t>
+  </si>
+  <si>
+    <t>ПрАТ "АГРОРЕСУРС"</t>
+  </si>
+  <si>
+    <t>Агро-технік</t>
+  </si>
+  <si>
+    <t>ТОВ "АГРО-ТЕХНІК"</t>
+  </si>
+  <si>
+    <t>НВП “Аеротехніка-МЛТ”</t>
+  </si>
+  <si>
+    <t>Аеротехніка</t>
+  </si>
+  <si>
+    <t>ТОВ "Айсберг"</t>
+  </si>
+  <si>
+    <t>Айсберг</t>
+  </si>
+  <si>
+    <t>АКМА</t>
+  </si>
+  <si>
+    <t>ТОВ "АЛЗАРТЕХ"</t>
+  </si>
+  <si>
+    <t>Алзартех</t>
+  </si>
+  <si>
+    <t>"Альбатрос"</t>
+  </si>
+  <si>
+    <t>Альбатрос</t>
+  </si>
+  <si>
+    <t>АЛЬТЕП</t>
+  </si>
+  <si>
+    <t>Альтеп</t>
+  </si>
+  <si>
+    <t>Альянс сталь</t>
+  </si>
+  <si>
+    <t>АЛЮР ПЛЮС</t>
+  </si>
+  <si>
+    <t>Алюр плюс</t>
+  </si>
+  <si>
+    <t>Амекс інжиніринг</t>
+  </si>
+  <si>
+    <t>Амекс</t>
+  </si>
+  <si>
+    <t>ООО "Ампер"</t>
+  </si>
+  <si>
+    <t>Ампер</t>
+  </si>
+  <si>
+    <t>ООО "Анантаджи"</t>
+  </si>
+  <si>
+    <t>Анантаджи</t>
+  </si>
+  <si>
+    <t>ООО "Антей Трак"</t>
+  </si>
+  <si>
+    <t>Антей Трак</t>
+  </si>
+  <si>
+    <t>ТОВ "АНТЕКС"</t>
+  </si>
+  <si>
+    <t>Антекс</t>
+  </si>
+  <si>
+    <t>АРК ГРУПП</t>
+  </si>
+  <si>
+    <t>Арк групп</t>
+  </si>
+  <si>
+    <t>АРМ-ЭКО</t>
+  </si>
+  <si>
+    <t>Арм-эко</t>
+  </si>
+  <si>
+    <t>"Астра"</t>
+  </si>
+  <si>
+    <t>Астра</t>
+  </si>
+  <si>
+    <t>ТОВ СП "АТЕМ ФРАНК"</t>
+  </si>
+  <si>
+    <t>Атем франк</t>
+  </si>
+  <si>
+    <t>АТОН</t>
+  </si>
+  <si>
+    <t>Атон</t>
+  </si>
+  <si>
+    <t>Бас Агро Груп</t>
+  </si>
+  <si>
+    <t>Бас агро груп</t>
+  </si>
+  <si>
+    <t>"Бастіон - БЦ"</t>
+  </si>
+  <si>
+    <t>Бастіон</t>
+  </si>
+  <si>
+    <t>ТДВ "БЗКУ"</t>
+  </si>
+  <si>
+    <t>БЗКУ</t>
+  </si>
+  <si>
+    <t>Богдан - Моторс</t>
+  </si>
+  <si>
+    <t>ТОВ "БПК ГАЗІНВЕСТПРОЕКТ"</t>
+  </si>
+  <si>
+    <t>БПК Газінвестпроект</t>
+  </si>
+  <si>
+    <t>Броньовик</t>
+  </si>
+  <si>
+    <t>ТОВ "НВП ВАГО"</t>
+  </si>
+  <si>
+    <t>ВАГО</t>
+  </si>
+  <si>
+    <t>ООО "ВАРЗ"</t>
+  </si>
+  <si>
+    <t>ВАРЗ</t>
+  </si>
+  <si>
+    <t>ТОВ "ВАРІАНТ АГРО БУД"</t>
+  </si>
+  <si>
+    <t>Варіант агро буд</t>
+  </si>
+  <si>
+    <t>WarmHaus</t>
+  </si>
+  <si>
+    <t>Варм хаус</t>
+  </si>
+  <si>
+    <t>"ВАРМХАУС ГРУП"</t>
+  </si>
+  <si>
+    <t>Варм хаус груп</t>
+  </si>
+  <si>
+    <t>Векторгруп</t>
+  </si>
+  <si>
+    <t>ВЕНТС</t>
+  </si>
+  <si>
+    <t>VENTS</t>
+  </si>
+  <si>
+    <t>ООО НПО "ВЕРТИКАЛЬ"</t>
+  </si>
+  <si>
+    <t>Вертикаль</t>
   </si>
 </sst>
 </file>
@@ -380,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -397,23 +619,23 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -421,10 +643,325 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B43">
+    <sortCondition ref="A3"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/vectortool_customers/customers_vectortool.xlsx
+++ b/vectortool_customers/customers_vectortool.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vectortool_soft\Projects\BendingToolsPriceCalc\vectortool_customers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668678C1-E673-4DD1-B1D0-71A5B45FB1AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9FF26-9B82-46A6-BC84-19203A684BEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="94">
   <si>
     <t>ТОВ "АЛЬЯНС СТАЛЬ"</t>
   </si>
@@ -277,6 +277,42 @@
   </si>
   <si>
     <t>Вертикаль</t>
+  </si>
+  <si>
+    <t>Весна</t>
+  </si>
+  <si>
+    <t>ТОВ НВП "ВЕСНА"</t>
+  </si>
+  <si>
+    <t>Вилком-Електро</t>
+  </si>
+  <si>
+    <t>ТОВ "ВИЛКОМ-ЕЛЕКТРО"</t>
+  </si>
+  <si>
+    <t>Східний експрес</t>
+  </si>
+  <si>
+    <t>ТОВ "Східний експрес"</t>
+  </si>
+  <si>
+    <t>ТОВ "Екіпаж"</t>
+  </si>
+  <si>
+    <t>Екіпаж</t>
+  </si>
+  <si>
+    <t>Елтеко</t>
+  </si>
+  <si>
+    <t>ТОВ "ВИРОБНИЧА КОМПАНІЯ ЕЛТЕКО"</t>
+  </si>
+  <si>
+    <t>ЗСЕМ</t>
+  </si>
+  <si>
+    <t>ТОВ "ЗСЕМ"</t>
   </si>
 </sst>
 </file>
@@ -602,16 +638,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,6 +992,54 @@
       </c>
       <c r="B43" s="1" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
